--- a/Input/ADNT_Local/benefits.xlsx
+++ b/Input/ADNT_Local/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="128">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -289,7 +289,26 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultations 20% co-pay with AED 50 max, with nil co-pay on all OP services/NIL/NIL - Classic,Core</t>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Consultations 20% co-pay with AED 50 max, nil co-pay on all OP services/NIL/NIL - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Core,Elite,Select</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">2023-05-01</t>
@@ -298,7 +317,7 @@
     <t xml:space="preserve">adnt_local</t>
   </si>
   <si>
-    <t xml:space="preserve">NE/Duabi</t>
+    <t xml:space="preserve">NE/Dubai</t>
   </si>
   <si>
     <t xml:space="preserve">Annually</t>
@@ -337,7 +356,36 @@
     <t xml:space="preserve">(Option 1) Consultation 20%  up to max AED 50, with Pharma 0%,  Diagnostics NIL co-pay and Physiotherapy NIL co-pay (Option 2) Consultation AED 50 up to max AED 50, with Pharma 20%,  Diagnostics 20%  co-pay and Physiotherapy 20% (Option 3) Consultation AED 50 up to max AED 50, with Pharma 20%,  Diagnostics NIL co-pay and Physiotherapy NIL co-pay </t>
   </si>
   <si>
-    <t xml:space="preserve">Consultations 20% co-pay with AED 50 max, with 20% co-pay on all OP services/20%/20% - Classic,Core</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Consultations 20% co-pay with AED 50 max, with 20% co-pay on all OP services/20%/20% - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Core,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Classic</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Classic</t>
@@ -364,7 +412,36 @@
     <t xml:space="preserve">(Option 1) Consultation 20%  up to max AED 50, with Pharma 0%,  Diagnostics NIL co-pay and Physiotherapy NIL co-pay (Option 2) Consultation AED 50 up to max AED 50, with Pharma 30%,  Diagnostics 20%  co-pay and Physiotherapy 20% (Option 3) Consultation AED 50 up to max AED 50, with Pharma 20%,  Diagnostics NIL co-pay and Physiotherapy NIL co-pay </t>
   </si>
   <si>
-    <t xml:space="preserve">Consultations 20% co-pay with AED 50 max, with phyiso, lab test nil co-pay, diagnostics nil co-pay, and medicines 20% co-pay/20%/NIL - Classic,Core</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Consultations 20% co-pay with AED 50 max, with nil co-pay on all OP services/NIL/NIL - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Core,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Classic</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Core</t>
@@ -400,16 +477,48 @@
     <t xml:space="preserve">Consultation 20% up to max AED 50, with Pharma 30%,  Diagnostics and Physiotherapy 20% co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultations 20% co-pay with AED 50 max, nil co-pay on all OP services/NIL/NIL - Core,Elite,Select</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultations 20% co-pay with AED 50 max, with phyiso 20% co-pay, lab test 20% co-pay, diagnostics 20% co-pay, and medicines 30% co-pay/30%/20% - Core,Elite,Select</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultations 20% co-pay with AED 50 max, with phyiso, lab test nil co-pay, diagnostics nil co-pay, and medicines 20% co-pay/20%/NIL - Core,Elite,Select</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultations 20% co-pay with AED 50 max, with phyiso 20% co-pay, lab test 20% co-pay, diagnostics 20% co-pay, and medicines 30% co-pay/30%/20% - Classic,Elite,Select</t>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Consultations 20% co-pay with AED 50 max, with phyiso 20% co-pay, lab test 20% co-pay, diagnostics 20% co-pay, and medicines 30% co-pay/30%/20% - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Elite,Select</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Consultations 20% co-pay with AED 50 max, with phyiso, lab test nil co-pay, diagnostics nil co-pay, and medicines 20% co-pay/20%/NIL - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Core</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -420,7 +529,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -445,6 +554,27 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -493,7 +623,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -506,38 +636,42 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BI8"/>
+  <dimension ref="A1:BI16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AZ1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BD4" activeCellId="0" sqref="BD4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BE1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BF6" activeCellId="0" sqref="BF6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.76"/>
@@ -546,31 +680,31 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="34.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="29.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="8" style="1" width="8.37"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="8" style="1" width="8.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="74.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="28.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="43.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="8.37"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="8.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="48.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="27.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="23" style="1" width="8.37"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="33" min="23" style="1" width="8.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="102.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="35" style="1" width="8.37"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="47" min="35" style="1" width="8.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="24.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="91.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="50" style="1" width="8.37"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="51" min="50" style="1" width="8.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="20.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="53" style="1" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="1" width="102.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="55" min="53" style="1" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="1" width="136.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="1" width="17.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="11.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="8.37"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="8.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="50.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="14.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="62" style="1" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="1" width="8.36"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="62" style="1" width="8.37"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1023" style="1" width="8.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -749,7 +883,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
@@ -885,10 +1019,10 @@
       <c r="BC2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BD2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="BE2" s="3" t="s">
+      <c r="BE2" s="4" t="s">
         <v>90</v>
       </c>
       <c r="BF2" s="1" t="s">
@@ -904,7 +1038,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>94</v>
       </c>
@@ -1040,14 +1174,14 @@
       <c r="BC3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BD3" s="5" t="s">
         <v>105</v>
       </c>
       <c r="BH3" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>106</v>
       </c>
@@ -1326,27 +1460,41 @@
       <c r="BC5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BD5" s="4" t="s">
+      <c r="BD5" s="3" t="s">
         <v>126</v>
       </c>
       <c r="BH5" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BD6" s="4" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BD6" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BD7" s="4" t="s">
-        <v>128</v>
-      </c>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BD7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BD8" s="4" t="s">
-        <v>129</v>
-      </c>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BD8" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BD11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BD12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BD13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BD14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BD15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BD16" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Input/ADNT_Local/benefits.xlsx
+++ b/Input/ADNT_Local/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="125">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -64,9 +64,6 @@
     <t xml:space="preserve">Organ Transplant</t>
   </si>
   <si>
-    <t xml:space="preserve">Out-patient (Consultations, Lab &amp; Diagnostics, Pharmacy, Physiotherapy)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Out-patient benefits</t>
   </si>
   <si>
@@ -199,7 +196,7 @@
     <t xml:space="preserve">Elite</t>
   </si>
   <si>
-    <t xml:space="preserve">AED 5,00,000 </t>
+    <t xml:space="preserve">AED 5,00,000</t>
   </si>
   <si>
     <t xml:space="preserve">Worldwide excluding USA and Canada</t>
@@ -214,7 +211,8 @@
     <t xml:space="preserve">Covered in full subject to declaration</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered in full subject to declaration *6 months waiting applicable if COC is not provided</t>
+    <t xml:space="preserve">Covered in full subject to declaration
+*6 months waiting applicable if COC is not provided</t>
   </si>
   <si>
     <t xml:space="preserve">Private room</t>
@@ -226,7 +224,8 @@
     <t xml:space="preserve">Covered with restirctions up to AED 50,000</t>
   </si>
   <si>
-    <t xml:space="preserve">Medicines covered in full with $ co-pay/ Diagnostics covered in full with $ co-pay Consultations covered with 20% up to max AED 50 </t>
+    <t xml:space="preserve">Medicines covered in full with $ co-pay/ Diagnostics covered in full with $ co-pay
+Consultations covered with 20% up to max AED 50</t>
   </si>
   <si>
     <t xml:space="preserve">20% up to max AED 50</t>
@@ -241,7 +240,8 @@
     <t xml:space="preserve">Covered in full with $ co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">OP: Covered with 10% co-pay IP: Covered up to AED 15,000 with 10% co-pay</t>
+    <t xml:space="preserve">OP: Covered with 10% co-pay
+IP: Covered up to AED 15,000 with 10% co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">No wait (LMP must be within policy period)</t>
@@ -265,10 +265,12 @@
     <t xml:space="preserve">Not Available</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to AED 2,500 with 20% co-pay *subject to pre-approval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psychiatric treatment covered on 80% reimbursement basis up to AED 5,000 subject to pre-approval Transient mental disorder or an acute reaction to stress are covered up to policy limit in UAE only</t>
+    <t xml:space="preserve">Covered up to AED 2,500 with 20% co-pay
+*subject to pre-approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychiatric treatment covered on 80% reimbursement basis up to AED 5,000 subject to pre-approval
+Transient mental disorder or an acute reaction to stress are covered up to policy limit in UAE only</t>
   </si>
   <si>
     <t xml:space="preserve">Available</t>
@@ -280,7 +282,9 @@
     <t xml:space="preserve">Worldwide exlc. USA and Canada</t>
   </si>
   <si>
-    <t xml:space="preserve">(Option 1) Consultation 20% up to max AED 50, with Pharma 0%,  Diagnostics NIL co-pay and Physiotherapy NIL co-pay (Option 2) Consultation AED 50 up to max AED 50, with Pharma 20%,  Diagnostics 20%  co-pay and Physiotherapy 20% (Option 3) Consultation AED 50 up to max AED 50, with Pharma 20%,  Diagnostics NIL co-pay and Physiotherapy NIL co-pay </t>
+    <t xml:space="preserve">(Option 1) Consultation 20% up to max AED 50, with Pharma 0%, Diagnostics NIL co-pay and Physiotherapy NIL co-pay
+(Option 2) Consultation AED 50 up to max AED 50, with Pharma 20%, Diagnostics 20% co-pay and Physiotherapy 20%
+(Option 3) Consultation AED 50 up to max AED 50, with Pharma 20%, Diagnostics NIL co-pay and Physiotherapy NIL co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">No</t>
@@ -326,7 +330,7 @@
     <t xml:space="preserve">Select</t>
   </si>
   <si>
-    <t xml:space="preserve">AED 4,00,000 </t>
+    <t xml:space="preserve">AED 4,00,000</t>
   </si>
   <si>
     <t xml:space="preserve">Worldwide excluding USA, Canada and Europe</t>
@@ -335,7 +339,8 @@
     <t xml:space="preserve">NAS Restricted</t>
   </si>
   <si>
-    <t xml:space="preserve">OP: Covered with 10% co-pay IP: Covered up to AED 12,500 with 10% co-pay</t>
+    <t xml:space="preserve">OP: Covered with 10% co-pay
+IP: Covered up to AED 12,500 with 10% co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 12,500 with 10% co-pay</t>
@@ -344,16 +349,15 @@
     <t xml:space="preserve">Covered up to AED 2,000 with 20% co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to AED 1,500 with 20% co-pay *subject to pre-approval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psychiatric treatment covered on 80% reimbursement basis up to AED 3,000 subject to pre-approval Transient mental disorder or an acute reaction to stress are covered up to policy limit in UAE only</t>
+    <t xml:space="preserve">Covered up to AED 1,500 with 20% co-pay
+*subject to pre-approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychiatric treatment covered on 80% reimbursement basis up to AED 3,000 subject to pre-approval
+Transient mental disorder or an acute reaction to stress are covered up to policy limit in UAE only</t>
   </si>
   <si>
     <t xml:space="preserve">Worldwide exlc. USA, Canada and Europe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Option 1) Consultation 20%  up to max AED 50, with Pharma 0%,  Diagnostics NIL co-pay and Physiotherapy NIL co-pay (Option 2) Consultation AED 50 up to max AED 50, with Pharma 20%,  Diagnostics 20%  co-pay and Physiotherapy 20% (Option 3) Consultation AED 50 up to max AED 50, with Pharma 20%,  Diagnostics NIL co-pay and Physiotherapy NIL co-pay </t>
   </si>
   <si>
     <r>
@@ -391,7 +395,7 @@
     <t xml:space="preserve">Classic</t>
   </si>
   <si>
-    <t xml:space="preserve">AED 3,00,000 </t>
+    <t xml:space="preserve">AED 3,00,000</t>
   </si>
   <si>
     <t xml:space="preserve">UAE, Arab Countries, Middle East, Indian Sub-continent and South East Asia Countries</t>
@@ -400,16 +404,14 @@
     <t xml:space="preserve">NAS Super Restricted</t>
   </si>
   <si>
-    <t xml:space="preserve">OP: Covered with 10% co-pay IP: Normal delivery covered up to AED 7,000 with 10% co-pay and C-section covered up to AED 10,000 with 10% co-pay</t>
+    <t xml:space="preserve">OP: Covered with 10% co-pay
+IP: Normal delivery covered up to AED 7,000 with 10% co-pay and C-section covered up to AED 10,000 with 10% co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 10,000 with 10% co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">Transient mental disorder or an acute reaction to stress are covered up to policy limit in UAE only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Option 1) Consultation 20%  up to max AED 50, with Pharma 0%,  Diagnostics NIL co-pay and Physiotherapy NIL co-pay (Option 2) Consultation AED 50 up to max AED 50, with Pharma 30%,  Diagnostics 20%  co-pay and Physiotherapy 20% (Option 3) Consultation AED 50 up to max AED 50, with Pharma 20%,  Diagnostics NIL co-pay and Physiotherapy NIL co-pay </t>
   </si>
   <si>
     <r>
@@ -447,7 +449,7 @@
     <t xml:space="preserve">Core</t>
   </si>
   <si>
-    <t xml:space="preserve">AED 1,50,000 </t>
+    <t xml:space="preserve">AED 1,50,000</t>
   </si>
   <si>
     <t xml:space="preserve">UAE</t>
@@ -459,22 +461,24 @@
     <t xml:space="preserve">Semi-private room</t>
   </si>
   <si>
-    <t xml:space="preserve">Medicines covered up to AED 3,00 with 30%  co-pay/ Diagnostics covered in full with 20% co-pay Consultations covered with 20% up to max AED 50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medicines covered up to AED 3,000 with 30%  co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full with 20%  co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP: Covered with 10% co-pay IP: Covered up to AED 10,000 with 10% co-pay</t>
+    <t xml:space="preserve">Medicines covered up to AED 3,00 with 30% co-pay/ Diagnostics covered in full with 20% co-pay
+Consultations covered with 20% up to max AED 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medicines covered up to AED 3,000 with 30% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full with 20% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP: Covered with 10% co-pay
+IP: Covered up to AED 10,000 with 10% co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">Homoepathy and Ayurveda covered up to AED 2,500 with 30% co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultation 20% up to max AED 50, with Pharma 30%,  Diagnostics and Physiotherapy 20% co-pay</t>
+    <t xml:space="preserve">Consultation 20% up to max AED 50, with Pharma 30%, Diagnostics and Physiotherapy 20% co-pay</t>
   </si>
   <si>
     <r>
@@ -529,7 +533,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -558,6 +562,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="7"/>
@@ -623,7 +633,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -632,8 +642,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -644,11 +662,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -673,15 +695,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BI11"/>
+  <dimension ref="A1:BK8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AY1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BD3" activeCellId="1" sqref="P:P BD3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.27"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="63.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.89"/>
@@ -690,9 +712,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="29.65"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="8" style="1" width="8.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="53.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="28.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="32.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="116.81"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="8.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="43.65"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="8.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="48.04"/>
@@ -705,789 +727,836 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="51" min="50" style="1" width="8.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="20.37"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="55" min="53" style="1" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="2" width="43.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="1" width="102.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="1" width="17.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="11.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="50.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="14.6"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="62" style="1" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="88.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="2" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="9.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="61" style="1" width="8.37"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1023" style="1" width="8.36"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AP1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AS1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AT1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AU1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AX1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AY1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BA1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BB1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BC1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BD1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BE1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BF1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BG1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BH1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BI1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BI1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="110.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="23.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="3" s="1" customFormat="true" ht="90.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="L3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="U3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="BJ3" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="true" ht="72.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="W4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AJ2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AZ4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="BA4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AY2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BB4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="BC2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BD2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BH2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>93</v>
+      <c r="BC4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF4" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ4" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="1" t="s">
+    <row r="5" s="1" customFormat="true" ht="87.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="I5" s="4"/>
+      <c r="J5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="L5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="S5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AX3" s="1" t="s">
+      <c r="V5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AY3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BB5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="BC3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BD3" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="BH3" s="3" t="s">
-        <v>96</v>
+      <c r="BC5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF5" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ5" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BD4" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="BH4" s="3" t="s">
-        <v>108</v>
+    <row r="6" s="1" customFormat="true" ht="69.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="BF6" s="7" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BD5" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BH5" s="3" t="s">
-        <v>117</v>
-      </c>
+    <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="BF7" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BD6" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BD7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BD8" s="6"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BD11" s="4"/>
+    <row r="8" customFormat="false" ht="43.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="BF8" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Input/ADNT_Local/benefits.xlsx
+++ b/Input/ADNT_Local/benefits.xlsx
@@ -315,7 +315,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">2023-05-01</t>
+    <t xml:space="preserve">2024-01-22</t>
   </si>
   <si>
     <t xml:space="preserve">adnt_local</t>
@@ -564,17 +564,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -633,7 +633,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -658,23 +658,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -697,8 +693,8 @@
   </sheetPr>
   <dimension ref="A1:BK8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BF1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BG4" activeCellId="0" sqref="BG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -736,7 +732,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1023" style="1" width="8.36"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="94.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -899,7 +895,7 @@
       <c r="BF1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="2" t="s">
         <v>52</v>
       </c>
       <c r="BH1" s="5" t="s">
@@ -1082,7 +1078,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="true" ht="90.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="90.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>93</v>
       </c>
@@ -1237,7 +1233,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="true" ht="72.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="72.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>104</v>
       </c>
@@ -1385,14 +1381,14 @@
       <c r="BE4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="BF4" s="10" t="s">
+      <c r="BF4" s="6" t="s">
         <v>111</v>
       </c>
       <c r="BJ4" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="true" ht="87.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="87.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>112</v>
       </c>
@@ -1547,7 +1543,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="true" ht="69.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="69.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="BF6" s="7" t="s">
         <v>124</v>
       </c>
